--- a/ArduinoProjectHub_20200518/ArduinoOneNETapp_20200528/设备终端接入协议-EDP/设备终端接入协议-EDP -v1.6_sample.xlsx
+++ b/ArduinoProjectHub_20200518/ArduinoOneNETapp_20200528/设备终端接入协议-EDP/设备终端接入协议-EDP -v1.6_sample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="1080" windowWidth="16710" windowHeight="10980" activeTab="1"/>
+    <workbookView xWindow="3930" yWindow="1080" windowWidth="16710" windowHeight="10980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -551,7 +551,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -561,7 +561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D311"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -936,7 +936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:L154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>

--- a/ArduinoProjectHub_20200518/ArduinoOneNETapp_20200528/设备终端接入协议-EDP/设备终端接入协议-EDP -v1.6_sample.xlsx
+++ b/ArduinoProjectHub_20200518/ArduinoOneNETapp_20200528/设备终端接入协议-EDP/设备终端接入协议-EDP -v1.6_sample.xlsx
@@ -551,7 +551,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
